--- a/data/2023-student-research-emissions.xlsx
+++ b/data/2023-student-research-emissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Research\Practice Research\ERM154-Case Study Challenge\SRCSC 2023\Data\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2c701d22fd49035/Desktop/ACTL4001/actl4001/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{039C082B-7F10-4E0A-A14E-4FD020029F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{039C082B-7F10-4E0A-A14E-4FD020029F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DDD306F-9CFA-4244-BD4E-C392BF638A43}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBBF923D-1C9D-4D46-BC44-F07E6A336A6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBBF923D-1C9D-4D46-BC44-F07E6A336A6A}"/>
   </bookViews>
   <sheets>
     <sheet name="SSP Scenarios" sheetId="7" r:id="rId1"/>
@@ -1236,27 +1236,27 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1550,50 +1550,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A452461E-0F5E-4B7A-9467-793FD3F8E661}">
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" activeCellId="1" sqref="A1:XFD7 O12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="30"/>
-    <col min="3" max="3" width="4.6640625" style="30" customWidth="1"/>
-    <col min="4" max="7" width="8.6640625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="30" customWidth="1"/>
-    <col min="9" max="12" width="8.6640625" style="30" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="30" customWidth="1"/>
-    <col min="14" max="17" width="8.6640625" style="30" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" style="30" customWidth="1"/>
-    <col min="19" max="22" width="8.6640625" style="30" customWidth="1"/>
-    <col min="23" max="23" width="3.6640625" style="30" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="30"/>
-    <col min="25" max="25" width="11.5546875" style="30" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="30"/>
+    <col min="1" max="1" width="3.7109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="30"/>
+    <col min="3" max="3" width="4.7109375" style="30" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="30" customWidth="1"/>
+    <col min="9" max="12" width="8.7109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="30" customWidth="1"/>
+    <col min="14" max="17" width="8.7109375" style="30" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" style="30" customWidth="1"/>
+    <col min="19" max="22" width="8.7109375" style="30" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" style="30" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" style="30"/>
+    <col min="25" max="25" width="11.5703125" style="30" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
       <c r="O1" s="26"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
     </row>
-    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
@@ -1618,93 +1620,93 @@
       <c r="U2" s="28"/>
       <c r="V2" s="28"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="99" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
       <c r="X3" s="33"/>
       <c r="Y3" s="33"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="33"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
       <c r="X5" s="33"/>
       <c r="Y5" s="33"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
@@ -1722,7 +1724,7 @@
       <c r="V6" s="31"/>
       <c r="W6" s="27"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="28"/>
@@ -1734,18 +1736,18 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
         <v>3</v>
       </c>
@@ -1770,7 +1772,7 @@
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
     </row>
-    <row r="9" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>4</v>
       </c>
@@ -1780,12 +1782,12 @@
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-    </row>
-    <row r="10" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+    </row>
+    <row r="10" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
         <v>6</v>
       </c>
@@ -1795,12 +1797,12 @@
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-    </row>
-    <row r="11" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+    </row>
+    <row r="11" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
         <v>8</v>
       </c>
@@ -1810,12 +1812,12 @@
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-    </row>
-    <row r="12" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+    </row>
+    <row r="12" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
         <v>10</v>
       </c>
@@ -1825,12 +1827,12 @@
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
@@ -1842,18 +1844,18 @@
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="97" t="s">
@@ -1884,7 +1886,7 @@
       <c r="U14" s="97"/>
       <c r="V14" s="97"/>
     </row>
-    <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
       <c r="D15" s="43" t="s">
@@ -1939,7 +1941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="29"/>
@@ -1962,7 +1964,7 @@
       <c r="U16" s="29"/>
       <c r="V16" s="29"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="36">
         <v>2005</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="36">
         <v>2010</v>
       </c>
@@ -2076,7 +2078,7 @@
         <v>9806</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="45">
         <v>2020</v>
       </c>
@@ -2133,7 +2135,7 @@
         <v>13496</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="36">
         <v>2030</v>
       </c>
@@ -2190,7 +2192,7 @@
         <v>20596</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
         <v>2040</v>
       </c>
@@ -2247,7 +2249,7 @@
         <v>30976</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="45">
         <v>2050</v>
       </c>
@@ -2304,7 +2306,7 @@
         <v>42505</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="36">
         <v>2060</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>55681</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="36">
         <v>2070</v>
       </c>
@@ -2418,7 +2420,7 @@
         <v>71607</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="45">
         <v>2080</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>90317</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="36">
         <v>2090</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>112681</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="36">
         <v>2100</v>
       </c>
@@ -2589,7 +2591,7 @@
         <v>139701</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="45">
         <v>2110</v>
       </c>
@@ -2622,7 +2624,7 @@
       <c r="U28" s="42"/>
       <c r="V28" s="42"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="36">
         <v>2120</v>
       </c>
@@ -2655,7 +2657,7 @@
       <c r="U29" s="42"/>
       <c r="V29" s="42"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="36">
         <v>2130</v>
       </c>
@@ -2688,7 +2690,7 @@
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="45">
         <v>2140</v>
       </c>
@@ -2721,7 +2723,7 @@
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="36">
         <v>2150</v>
       </c>
@@ -2754,7 +2756,7 @@
       <c r="U32" s="42"/>
       <c r="V32" s="42"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
       <c r="D33" s="42"/>
@@ -2777,7 +2779,7 @@
       <c r="U33" s="42"/>
       <c r="V33" s="42"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="50" t="s">
         <v>98</v>
       </c>
@@ -2802,7 +2804,7 @@
       <c r="U34" s="26"/>
       <c r="V34" s="26"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -2825,7 +2827,7 @@
       <c r="U35" s="26"/>
       <c r="V35" s="26"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>20</v>
       </c>
@@ -2850,7 +2852,7 @@
       <c r="U36" s="35"/>
       <c r="V36" s="35"/>
     </row>
-    <row r="37" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="51" t="s">
         <v>21</v>
       </c>
@@ -2875,7 +2877,7 @@
       <c r="U37" s="52"/>
       <c r="V37" s="52"/>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>22</v>
       </c>
@@ -2900,7 +2902,7 @@
       <c r="U38" s="52"/>
       <c r="V38" s="52"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
@@ -2923,7 +2925,7 @@
       <c r="U39" s="52"/>
       <c r="V39" s="52"/>
     </row>
-    <row r="40" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="51" t="s">
         <v>23</v>
       </c>
@@ -2948,7 +2950,7 @@
       <c r="U40" s="52"/>
       <c r="V40" s="52"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>24</v>
       </c>
@@ -2973,7 +2975,7 @@
       <c r="U41" s="52"/>
       <c r="V41" s="52"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="52" t="s">
         <v>25</v>
       </c>
@@ -2998,7 +3000,7 @@
       <c r="U42" s="52"/>
       <c r="V42" s="52"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="52" t="s">
         <v>26</v>
       </c>
@@ -3023,7 +3025,7 @@
       <c r="U43" s="52"/>
       <c r="V43" s="52"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="52" t="s">
         <v>27</v>
       </c>
@@ -3048,7 +3050,7 @@
       <c r="U44" s="52"/>
       <c r="V44" s="52"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="52" t="s">
         <v>28</v>
       </c>
@@ -3073,7 +3075,7 @@
       <c r="U45" s="52"/>
       <c r="V45" s="52"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="52" t="s">
         <v>29</v>
       </c>
@@ -3098,7 +3100,7 @@
       <c r="U46" s="52"/>
       <c r="V46" s="52"/>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="52" t="s">
         <v>30</v>
       </c>
@@ -3123,7 +3125,7 @@
       <c r="U47" s="52"/>
       <c r="V47" s="52"/>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="52" t="s">
         <v>31</v>
       </c>
@@ -3148,7 +3150,7 @@
       <c r="U48" s="52"/>
       <c r="V48" s="52"/>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B49" s="52" t="s">
         <v>32</v>
       </c>
@@ -3173,7 +3175,7 @@
       <c r="U49" s="52"/>
       <c r="V49" s="52"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B50" s="52" t="s">
         <v>95</v>
       </c>
@@ -3198,7 +3200,7 @@
       <c r="U50" s="52"/>
       <c r="V50" s="52"/>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="52" t="s">
         <v>33</v>
       </c>
@@ -3223,7 +3225,7 @@
       <c r="U51" s="52"/>
       <c r="V51" s="52"/>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" s="52"/>
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
@@ -3246,7 +3248,7 @@
       <c r="U52" s="52"/>
       <c r="V52" s="52"/>
     </row>
-    <row r="53" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="51" t="s">
         <v>34</v>
       </c>
@@ -3271,165 +3273,165 @@
       <c r="U53" s="52"/>
       <c r="V53" s="52"/>
     </row>
-    <row r="54" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="91" t="s">
+    <row r="54" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="94"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="94"/>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="94"/>
-      <c r="V54" s="94"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="96"/>
+      <c r="P54" s="96"/>
+      <c r="Q54" s="96"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="96"/>
+      <c r="T54" s="96"/>
+      <c r="U54" s="96"/>
+      <c r="V54" s="96"/>
       <c r="W54" s="28"/>
       <c r="X54" s="28"/>
       <c r="Y54" s="28"/>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
-      <c r="O55" s="94"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="94"/>
-      <c r="R55" s="94"/>
-      <c r="S55" s="94"/>
-      <c r="T55" s="94"/>
-      <c r="U55" s="94"/>
-      <c r="V55" s="94"/>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="96"/>
+      <c r="O55" s="96"/>
+      <c r="P55" s="96"/>
+      <c r="Q55" s="96"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="96"/>
+      <c r="T55" s="96"/>
+      <c r="U55" s="96"/>
+      <c r="V55" s="96"/>
       <c r="W55" s="28"/>
       <c r="X55" s="28"/>
       <c r="Y55" s="28"/>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="94"/>
-      <c r="N56" s="94"/>
-      <c r="O56" s="94"/>
-      <c r="P56" s="94"/>
-      <c r="Q56" s="94"/>
-      <c r="R56" s="94"/>
-      <c r="S56" s="94"/>
-      <c r="T56" s="94"/>
-      <c r="U56" s="94"/>
-      <c r="V56" s="94"/>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="96"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="96"/>
+      <c r="Q56" s="96"/>
+      <c r="R56" s="96"/>
+      <c r="S56" s="96"/>
+      <c r="T56" s="96"/>
+      <c r="U56" s="96"/>
+      <c r="V56" s="96"/>
       <c r="W56" s="28"/>
       <c r="X56" s="28"/>
       <c r="Y56" s="28"/>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
-      <c r="L57" s="94"/>
-      <c r="M57" s="94"/>
-      <c r="N57" s="94"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="94"/>
-      <c r="Q57" s="94"/>
-      <c r="R57" s="94"/>
-      <c r="S57" s="94"/>
-      <c r="T57" s="94"/>
-      <c r="U57" s="94"/>
-      <c r="V57" s="94"/>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="96"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="96"/>
+      <c r="U57" s="96"/>
+      <c r="V57" s="96"/>
       <c r="W57" s="28"/>
       <c r="X57" s="28"/>
       <c r="Y57" s="28"/>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="94"/>
-      <c r="M58" s="94"/>
-      <c r="N58" s="94"/>
-      <c r="O58" s="94"/>
-      <c r="P58" s="94"/>
-      <c r="Q58" s="94"/>
-      <c r="R58" s="94"/>
-      <c r="S58" s="94"/>
-      <c r="T58" s="94"/>
-      <c r="U58" s="94"/>
-      <c r="V58" s="94"/>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="96"/>
+      <c r="R58" s="96"/>
+      <c r="S58" s="96"/>
+      <c r="T58" s="96"/>
+      <c r="U58" s="96"/>
+      <c r="V58" s="96"/>
       <c r="W58" s="28"/>
       <c r="X58" s="28"/>
       <c r="Y58" s="28"/>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="94"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="94"/>
-      <c r="M59" s="94"/>
-      <c r="N59" s="94"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="94"/>
-      <c r="Q59" s="94"/>
-      <c r="R59" s="94"/>
-      <c r="S59" s="94"/>
-      <c r="T59" s="94"/>
-      <c r="U59" s="94"/>
-      <c r="V59" s="94"/>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="96"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="96"/>
+      <c r="R59" s="96"/>
+      <c r="S59" s="96"/>
+      <c r="T59" s="96"/>
+      <c r="U59" s="96"/>
+      <c r="V59" s="96"/>
       <c r="W59" s="28"/>
       <c r="X59" s="28"/>
       <c r="Y59" s="28"/>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" s="53"/>
       <c r="C60" s="53"/>
       <c r="D60" s="53"/>
@@ -3452,7 +3454,7 @@
       <c r="U60" s="53"/>
       <c r="V60" s="53"/>
     </row>
-    <row r="61" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="51" t="s">
         <v>35</v>
       </c>
@@ -3477,7 +3479,7 @@
       <c r="U61" s="52"/>
       <c r="V61" s="52"/>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" s="52" t="s">
         <v>36</v>
       </c>
@@ -3502,7 +3504,7 @@
       <c r="U62" s="52"/>
       <c r="V62" s="52"/>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B63" s="52"/>
       <c r="C63" s="52"/>
       <c r="D63" s="52"/>
@@ -3525,7 +3527,7 @@
       <c r="U63" s="52"/>
       <c r="V63" s="52"/>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B64" s="53" t="s">
         <v>37</v>
       </c>
@@ -3550,113 +3552,113 @@
       <c r="U64" s="52"/>
       <c r="V64" s="52"/>
     </row>
-    <row r="65" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="91" t="s">
+    <row r="65" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="91"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="91"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="91"/>
-      <c r="J65" s="91"/>
-      <c r="K65" s="91"/>
-      <c r="L65" s="91"/>
-      <c r="M65" s="91"/>
-      <c r="N65" s="91"/>
-      <c r="O65" s="91"/>
-      <c r="P65" s="91"/>
-      <c r="Q65" s="91"/>
-      <c r="R65" s="91"/>
-      <c r="S65" s="91"/>
-      <c r="T65" s="91"/>
-      <c r="U65" s="91"/>
-      <c r="V65" s="91"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="95"/>
+      <c r="L65" s="95"/>
+      <c r="M65" s="95"/>
+      <c r="N65" s="95"/>
+      <c r="O65" s="95"/>
+      <c r="P65" s="95"/>
+      <c r="Q65" s="95"/>
+      <c r="R65" s="95"/>
+      <c r="S65" s="95"/>
+      <c r="T65" s="95"/>
+      <c r="U65" s="95"/>
+      <c r="V65" s="95"/>
       <c r="W65" s="28"/>
       <c r="X65" s="28"/>
       <c r="Y65" s="28"/>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="91"/>
-      <c r="L66" s="91"/>
-      <c r="M66" s="91"/>
-      <c r="N66" s="91"/>
-      <c r="O66" s="91"/>
-      <c r="P66" s="91"/>
-      <c r="Q66" s="91"/>
-      <c r="R66" s="91"/>
-      <c r="S66" s="91"/>
-      <c r="T66" s="91"/>
-      <c r="U66" s="91"/>
-      <c r="V66" s="91"/>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="95"/>
+      <c r="M66" s="95"/>
+      <c r="N66" s="95"/>
+      <c r="O66" s="95"/>
+      <c r="P66" s="95"/>
+      <c r="Q66" s="95"/>
+      <c r="R66" s="95"/>
+      <c r="S66" s="95"/>
+      <c r="T66" s="95"/>
+      <c r="U66" s="95"/>
+      <c r="V66" s="95"/>
       <c r="W66" s="28"/>
       <c r="X66" s="28"/>
       <c r="Y66" s="28"/>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B67" s="91"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="91"/>
-      <c r="E67" s="91"/>
-      <c r="F67" s="91"/>
-      <c r="G67" s="91"/>
-      <c r="H67" s="91"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="91"/>
-      <c r="K67" s="91"/>
-      <c r="L67" s="91"/>
-      <c r="M67" s="91"/>
-      <c r="N67" s="91"/>
-      <c r="O67" s="91"/>
-      <c r="P67" s="91"/>
-      <c r="Q67" s="91"/>
-      <c r="R67" s="91"/>
-      <c r="S67" s="91"/>
-      <c r="T67" s="91"/>
-      <c r="U67" s="91"/>
-      <c r="V67" s="91"/>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="95"/>
+      <c r="K67" s="95"/>
+      <c r="L67" s="95"/>
+      <c r="M67" s="95"/>
+      <c r="N67" s="95"/>
+      <c r="O67" s="95"/>
+      <c r="P67" s="95"/>
+      <c r="Q67" s="95"/>
+      <c r="R67" s="95"/>
+      <c r="S67" s="95"/>
+      <c r="T67" s="95"/>
+      <c r="U67" s="95"/>
+      <c r="V67" s="95"/>
       <c r="W67" s="28"/>
       <c r="X67" s="28"/>
       <c r="Y67" s="28"/>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="91"/>
-      <c r="K68" s="91"/>
-      <c r="L68" s="91"/>
-      <c r="M68" s="91"/>
-      <c r="N68" s="91"/>
-      <c r="O68" s="91"/>
-      <c r="P68" s="91"/>
-      <c r="Q68" s="91"/>
-      <c r="R68" s="91"/>
-      <c r="S68" s="91"/>
-      <c r="T68" s="91"/>
-      <c r="U68" s="91"/>
-      <c r="V68" s="91"/>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B68" s="95"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="95"/>
+      <c r="J68" s="95"/>
+      <c r="K68" s="95"/>
+      <c r="L68" s="95"/>
+      <c r="M68" s="95"/>
+      <c r="N68" s="95"/>
+      <c r="O68" s="95"/>
+      <c r="P68" s="95"/>
+      <c r="Q68" s="95"/>
+      <c r="R68" s="95"/>
+      <c r="S68" s="95"/>
+      <c r="T68" s="95"/>
+      <c r="U68" s="95"/>
+      <c r="V68" s="95"/>
       <c r="W68" s="28"/>
       <c r="X68" s="28"/>
       <c r="Y68" s="28"/>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B69" s="52"/>
       <c r="C69" s="54"/>
       <c r="D69" s="54"/>
@@ -3679,7 +3681,7 @@
       <c r="U69" s="54"/>
       <c r="V69" s="54"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B70" s="53" t="s">
         <v>39</v>
       </c>
@@ -3704,139 +3706,139 @@
       <c r="U70" s="52"/>
       <c r="V70" s="52"/>
     </row>
-    <row r="71" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="91" t="s">
+    <row r="71" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
-      <c r="I71" s="91"/>
-      <c r="J71" s="91"/>
-      <c r="K71" s="91"/>
-      <c r="L71" s="91"/>
-      <c r="M71" s="91"/>
-      <c r="N71" s="91"/>
-      <c r="O71" s="91"/>
-      <c r="P71" s="91"/>
-      <c r="Q71" s="91"/>
-      <c r="R71" s="91"/>
-      <c r="S71" s="91"/>
-      <c r="T71" s="91"/>
-      <c r="U71" s="91"/>
-      <c r="V71" s="91"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="95"/>
+      <c r="I71" s="95"/>
+      <c r="J71" s="95"/>
+      <c r="K71" s="95"/>
+      <c r="L71" s="95"/>
+      <c r="M71" s="95"/>
+      <c r="N71" s="95"/>
+      <c r="O71" s="95"/>
+      <c r="P71" s="95"/>
+      <c r="Q71" s="95"/>
+      <c r="R71" s="95"/>
+      <c r="S71" s="95"/>
+      <c r="T71" s="95"/>
+      <c r="U71" s="95"/>
+      <c r="V71" s="95"/>
       <c r="W71" s="28"/>
       <c r="X71" s="28"/>
       <c r="Y71" s="28"/>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B72" s="91"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="91"/>
-      <c r="H72" s="91"/>
-      <c r="I72" s="91"/>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="91"/>
-      <c r="O72" s="91"/>
-      <c r="P72" s="91"/>
-      <c r="Q72" s="91"/>
-      <c r="R72" s="91"/>
-      <c r="S72" s="91"/>
-      <c r="T72" s="91"/>
-      <c r="U72" s="91"/>
-      <c r="V72" s="91"/>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B72" s="95"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="95"/>
+      <c r="L72" s="95"/>
+      <c r="M72" s="95"/>
+      <c r="N72" s="95"/>
+      <c r="O72" s="95"/>
+      <c r="P72" s="95"/>
+      <c r="Q72" s="95"/>
+      <c r="R72" s="95"/>
+      <c r="S72" s="95"/>
+      <c r="T72" s="95"/>
+      <c r="U72" s="95"/>
+      <c r="V72" s="95"/>
       <c r="W72" s="28"/>
       <c r="X72" s="28"/>
       <c r="Y72" s="28"/>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B73" s="91"/>
-      <c r="C73" s="91"/>
-      <c r="D73" s="91"/>
-      <c r="E73" s="91"/>
-      <c r="F73" s="91"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="91"/>
-      <c r="J73" s="91"/>
-      <c r="K73" s="91"/>
-      <c r="L73" s="91"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="91"/>
-      <c r="O73" s="91"/>
-      <c r="P73" s="91"/>
-      <c r="Q73" s="91"/>
-      <c r="R73" s="91"/>
-      <c r="S73" s="91"/>
-      <c r="T73" s="91"/>
-      <c r="U73" s="91"/>
-      <c r="V73" s="91"/>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="95"/>
+      <c r="I73" s="95"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="95"/>
+      <c r="L73" s="95"/>
+      <c r="M73" s="95"/>
+      <c r="N73" s="95"/>
+      <c r="O73" s="95"/>
+      <c r="P73" s="95"/>
+      <c r="Q73" s="95"/>
+      <c r="R73" s="95"/>
+      <c r="S73" s="95"/>
+      <c r="T73" s="95"/>
+      <c r="U73" s="95"/>
+      <c r="V73" s="95"/>
       <c r="W73" s="28"/>
       <c r="X73" s="28"/>
       <c r="Y73" s="28"/>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B74" s="91"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
-      <c r="J74" s="91"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
-      <c r="M74" s="91"/>
-      <c r="N74" s="91"/>
-      <c r="O74" s="91"/>
-      <c r="P74" s="91"/>
-      <c r="Q74" s="91"/>
-      <c r="R74" s="91"/>
-      <c r="S74" s="91"/>
-      <c r="T74" s="91"/>
-      <c r="U74" s="91"/>
-      <c r="V74" s="91"/>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B74" s="95"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="95"/>
+      <c r="I74" s="95"/>
+      <c r="J74" s="95"/>
+      <c r="K74" s="95"/>
+      <c r="L74" s="95"/>
+      <c r="M74" s="95"/>
+      <c r="N74" s="95"/>
+      <c r="O74" s="95"/>
+      <c r="P74" s="95"/>
+      <c r="Q74" s="95"/>
+      <c r="R74" s="95"/>
+      <c r="S74" s="95"/>
+      <c r="T74" s="95"/>
+      <c r="U74" s="95"/>
+      <c r="V74" s="95"/>
       <c r="W74" s="28"/>
       <c r="X74" s="28"/>
       <c r="Y74" s="28"/>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B75" s="91"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="91"/>
-      <c r="F75" s="91"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="91"/>
-      <c r="J75" s="91"/>
-      <c r="K75" s="91"/>
-      <c r="L75" s="91"/>
-      <c r="M75" s="91"/>
-      <c r="N75" s="91"/>
-      <c r="O75" s="91"/>
-      <c r="P75" s="91"/>
-      <c r="Q75" s="91"/>
-      <c r="R75" s="91"/>
-      <c r="S75" s="91"/>
-      <c r="T75" s="91"/>
-      <c r="U75" s="91"/>
-      <c r="V75" s="91"/>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B75" s="95"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="95"/>
+      <c r="H75" s="95"/>
+      <c r="I75" s="95"/>
+      <c r="J75" s="95"/>
+      <c r="K75" s="95"/>
+      <c r="L75" s="95"/>
+      <c r="M75" s="95"/>
+      <c r="N75" s="95"/>
+      <c r="O75" s="95"/>
+      <c r="P75" s="95"/>
+      <c r="Q75" s="95"/>
+      <c r="R75" s="95"/>
+      <c r="S75" s="95"/>
+      <c r="T75" s="95"/>
+      <c r="U75" s="95"/>
+      <c r="V75" s="95"/>
       <c r="W75" s="28"/>
       <c r="X75" s="28"/>
       <c r="Y75" s="28"/>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B76" s="52"/>
       <c r="C76" s="54"/>
       <c r="D76" s="54"/>
@@ -3859,7 +3861,7 @@
       <c r="U76" s="54"/>
       <c r="V76" s="54"/>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="53" t="s">
         <v>41</v>
       </c>
@@ -3884,139 +3886,139 @@
       <c r="U77" s="52"/>
       <c r="V77" s="52"/>
     </row>
-    <row r="78" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="91" t="s">
+    <row r="78" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
-      <c r="F78" s="91"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="91"/>
-      <c r="K78" s="91"/>
-      <c r="L78" s="91"/>
-      <c r="M78" s="91"/>
-      <c r="N78" s="91"/>
-      <c r="O78" s="91"/>
-      <c r="P78" s="91"/>
-      <c r="Q78" s="91"/>
-      <c r="R78" s="91"/>
-      <c r="S78" s="91"/>
-      <c r="T78" s="91"/>
-      <c r="U78" s="91"/>
-      <c r="V78" s="91"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
+      <c r="H78" s="95"/>
+      <c r="I78" s="95"/>
+      <c r="J78" s="95"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95"/>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="95"/>
+      <c r="Q78" s="95"/>
+      <c r="R78" s="95"/>
+      <c r="S78" s="95"/>
+      <c r="T78" s="95"/>
+      <c r="U78" s="95"/>
+      <c r="V78" s="95"/>
       <c r="W78" s="28"/>
       <c r="X78" s="28"/>
       <c r="Y78" s="28"/>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B79" s="91"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
-      <c r="M79" s="91"/>
-      <c r="N79" s="91"/>
-      <c r="O79" s="91"/>
-      <c r="P79" s="91"/>
-      <c r="Q79" s="91"/>
-      <c r="R79" s="91"/>
-      <c r="S79" s="91"/>
-      <c r="T79" s="91"/>
-      <c r="U79" s="91"/>
-      <c r="V79" s="91"/>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B79" s="95"/>
+      <c r="C79" s="95"/>
+      <c r="D79" s="95"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="95"/>
+      <c r="G79" s="95"/>
+      <c r="H79" s="95"/>
+      <c r="I79" s="95"/>
+      <c r="J79" s="95"/>
+      <c r="K79" s="95"/>
+      <c r="L79" s="95"/>
+      <c r="M79" s="95"/>
+      <c r="N79" s="95"/>
+      <c r="O79" s="95"/>
+      <c r="P79" s="95"/>
+      <c r="Q79" s="95"/>
+      <c r="R79" s="95"/>
+      <c r="S79" s="95"/>
+      <c r="T79" s="95"/>
+      <c r="U79" s="95"/>
+      <c r="V79" s="95"/>
       <c r="W79" s="28"/>
       <c r="X79" s="28"/>
       <c r="Y79" s="28"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B80" s="91"/>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="91"/>
-      <c r="J80" s="91"/>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
-      <c r="M80" s="91"/>
-      <c r="N80" s="91"/>
-      <c r="O80" s="91"/>
-      <c r="P80" s="91"/>
-      <c r="Q80" s="91"/>
-      <c r="R80" s="91"/>
-      <c r="S80" s="91"/>
-      <c r="T80" s="91"/>
-      <c r="U80" s="91"/>
-      <c r="V80" s="91"/>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B80" s="95"/>
+      <c r="C80" s="95"/>
+      <c r="D80" s="95"/>
+      <c r="E80" s="95"/>
+      <c r="F80" s="95"/>
+      <c r="G80" s="95"/>
+      <c r="H80" s="95"/>
+      <c r="I80" s="95"/>
+      <c r="J80" s="95"/>
+      <c r="K80" s="95"/>
+      <c r="L80" s="95"/>
+      <c r="M80" s="95"/>
+      <c r="N80" s="95"/>
+      <c r="O80" s="95"/>
+      <c r="P80" s="95"/>
+      <c r="Q80" s="95"/>
+      <c r="R80" s="95"/>
+      <c r="S80" s="95"/>
+      <c r="T80" s="95"/>
+      <c r="U80" s="95"/>
+      <c r="V80" s="95"/>
       <c r="W80" s="28"/>
       <c r="X80" s="28"/>
       <c r="Y80" s="28"/>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B81" s="91"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="91"/>
-      <c r="F81" s="91"/>
-      <c r="G81" s="91"/>
-      <c r="H81" s="91"/>
-      <c r="I81" s="91"/>
-      <c r="J81" s="91"/>
-      <c r="K81" s="91"/>
-      <c r="L81" s="91"/>
-      <c r="M81" s="91"/>
-      <c r="N81" s="91"/>
-      <c r="O81" s="91"/>
-      <c r="P81" s="91"/>
-      <c r="Q81" s="91"/>
-      <c r="R81" s="91"/>
-      <c r="S81" s="91"/>
-      <c r="T81" s="91"/>
-      <c r="U81" s="91"/>
-      <c r="V81" s="91"/>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B81" s="95"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="95"/>
+      <c r="F81" s="95"/>
+      <c r="G81" s="95"/>
+      <c r="H81" s="95"/>
+      <c r="I81" s="95"/>
+      <c r="J81" s="95"/>
+      <c r="K81" s="95"/>
+      <c r="L81" s="95"/>
+      <c r="M81" s="95"/>
+      <c r="N81" s="95"/>
+      <c r="O81" s="95"/>
+      <c r="P81" s="95"/>
+      <c r="Q81" s="95"/>
+      <c r="R81" s="95"/>
+      <c r="S81" s="95"/>
+      <c r="T81" s="95"/>
+      <c r="U81" s="95"/>
+      <c r="V81" s="95"/>
       <c r="W81" s="28"/>
       <c r="X81" s="28"/>
       <c r="Y81" s="28"/>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B82" s="91"/>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="91"/>
-      <c r="K82" s="91"/>
-      <c r="L82" s="91"/>
-      <c r="M82" s="91"/>
-      <c r="N82" s="91"/>
-      <c r="O82" s="91"/>
-      <c r="P82" s="91"/>
-      <c r="Q82" s="91"/>
-      <c r="R82" s="91"/>
-      <c r="S82" s="91"/>
-      <c r="T82" s="91"/>
-      <c r="U82" s="91"/>
-      <c r="V82" s="91"/>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="95"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="95"/>
+      <c r="I82" s="95"/>
+      <c r="J82" s="95"/>
+      <c r="K82" s="95"/>
+      <c r="L82" s="95"/>
+      <c r="M82" s="95"/>
+      <c r="N82" s="95"/>
+      <c r="O82" s="95"/>
+      <c r="P82" s="95"/>
+      <c r="Q82" s="95"/>
+      <c r="R82" s="95"/>
+      <c r="S82" s="95"/>
+      <c r="T82" s="95"/>
+      <c r="U82" s="95"/>
+      <c r="V82" s="95"/>
       <c r="W82" s="28"/>
       <c r="X82" s="28"/>
       <c r="Y82" s="28"/>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B83" s="52"/>
       <c r="C83" s="54"/>
       <c r="D83" s="54"/>
@@ -4039,7 +4041,7 @@
       <c r="U83" s="54"/>
       <c r="V83" s="54"/>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B84" s="53" t="s">
         <v>43</v>
       </c>
@@ -4064,139 +4066,139 @@
       <c r="U84" s="52"/>
       <c r="V84" s="52"/>
     </row>
-    <row r="85" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="91" t="s">
+    <row r="85" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="91"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="91"/>
-      <c r="G85" s="91"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
-      <c r="P85" s="91"/>
-      <c r="Q85" s="91"/>
-      <c r="R85" s="91"/>
-      <c r="S85" s="91"/>
-      <c r="T85" s="91"/>
-      <c r="U85" s="91"/>
-      <c r="V85" s="91"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="95"/>
+      <c r="F85" s="95"/>
+      <c r="G85" s="95"/>
+      <c r="H85" s="95"/>
+      <c r="I85" s="95"/>
+      <c r="J85" s="95"/>
+      <c r="K85" s="95"/>
+      <c r="L85" s="95"/>
+      <c r="M85" s="95"/>
+      <c r="N85" s="95"/>
+      <c r="O85" s="95"/>
+      <c r="P85" s="95"/>
+      <c r="Q85" s="95"/>
+      <c r="R85" s="95"/>
+      <c r="S85" s="95"/>
+      <c r="T85" s="95"/>
+      <c r="U85" s="95"/>
+      <c r="V85" s="95"/>
       <c r="W85" s="28"/>
       <c r="X85" s="28"/>
       <c r="Y85" s="28"/>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B86" s="91"/>
-      <c r="C86" s="91"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="91"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="91"/>
-      <c r="J86" s="91"/>
-      <c r="K86" s="91"/>
-      <c r="L86" s="91"/>
-      <c r="M86" s="91"/>
-      <c r="N86" s="91"/>
-      <c r="O86" s="91"/>
-      <c r="P86" s="91"/>
-      <c r="Q86" s="91"/>
-      <c r="R86" s="91"/>
-      <c r="S86" s="91"/>
-      <c r="T86" s="91"/>
-      <c r="U86" s="91"/>
-      <c r="V86" s="91"/>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B86" s="95"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="95"/>
+      <c r="G86" s="95"/>
+      <c r="H86" s="95"/>
+      <c r="I86" s="95"/>
+      <c r="J86" s="95"/>
+      <c r="K86" s="95"/>
+      <c r="L86" s="95"/>
+      <c r="M86" s="95"/>
+      <c r="N86" s="95"/>
+      <c r="O86" s="95"/>
+      <c r="P86" s="95"/>
+      <c r="Q86" s="95"/>
+      <c r="R86" s="95"/>
+      <c r="S86" s="95"/>
+      <c r="T86" s="95"/>
+      <c r="U86" s="95"/>
+      <c r="V86" s="95"/>
       <c r="W86" s="28"/>
       <c r="X86" s="28"/>
       <c r="Y86" s="28"/>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B87" s="91"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="91"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="91"/>
-      <c r="I87" s="91"/>
-      <c r="J87" s="91"/>
-      <c r="K87" s="91"/>
-      <c r="L87" s="91"/>
-      <c r="M87" s="91"/>
-      <c r="N87" s="91"/>
-      <c r="O87" s="91"/>
-      <c r="P87" s="91"/>
-      <c r="Q87" s="91"/>
-      <c r="R87" s="91"/>
-      <c r="S87" s="91"/>
-      <c r="T87" s="91"/>
-      <c r="U87" s="91"/>
-      <c r="V87" s="91"/>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B87" s="95"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="95"/>
+      <c r="F87" s="95"/>
+      <c r="G87" s="95"/>
+      <c r="H87" s="95"/>
+      <c r="I87" s="95"/>
+      <c r="J87" s="95"/>
+      <c r="K87" s="95"/>
+      <c r="L87" s="95"/>
+      <c r="M87" s="95"/>
+      <c r="N87" s="95"/>
+      <c r="O87" s="95"/>
+      <c r="P87" s="95"/>
+      <c r="Q87" s="95"/>
+      <c r="R87" s="95"/>
+      <c r="S87" s="95"/>
+      <c r="T87" s="95"/>
+      <c r="U87" s="95"/>
+      <c r="V87" s="95"/>
       <c r="W87" s="28"/>
       <c r="X87" s="28"/>
       <c r="Y87" s="28"/>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B88" s="91"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="91"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="91"/>
-      <c r="H88" s="91"/>
-      <c r="I88" s="91"/>
-      <c r="J88" s="91"/>
-      <c r="K88" s="91"/>
-      <c r="L88" s="91"/>
-      <c r="M88" s="91"/>
-      <c r="N88" s="91"/>
-      <c r="O88" s="91"/>
-      <c r="P88" s="91"/>
-      <c r="Q88" s="91"/>
-      <c r="R88" s="91"/>
-      <c r="S88" s="91"/>
-      <c r="T88" s="91"/>
-      <c r="U88" s="91"/>
-      <c r="V88" s="91"/>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B88" s="95"/>
+      <c r="C88" s="95"/>
+      <c r="D88" s="95"/>
+      <c r="E88" s="95"/>
+      <c r="F88" s="95"/>
+      <c r="G88" s="95"/>
+      <c r="H88" s="95"/>
+      <c r="I88" s="95"/>
+      <c r="J88" s="95"/>
+      <c r="K88" s="95"/>
+      <c r="L88" s="95"/>
+      <c r="M88" s="95"/>
+      <c r="N88" s="95"/>
+      <c r="O88" s="95"/>
+      <c r="P88" s="95"/>
+      <c r="Q88" s="95"/>
+      <c r="R88" s="95"/>
+      <c r="S88" s="95"/>
+      <c r="T88" s="95"/>
+      <c r="U88" s="95"/>
+      <c r="V88" s="95"/>
       <c r="W88" s="28"/>
       <c r="X88" s="28"/>
       <c r="Y88" s="28"/>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
-      <c r="K89" s="91"/>
-      <c r="L89" s="91"/>
-      <c r="M89" s="91"/>
-      <c r="N89" s="91"/>
-      <c r="O89" s="91"/>
-      <c r="P89" s="91"/>
-      <c r="Q89" s="91"/>
-      <c r="R89" s="91"/>
-      <c r="S89" s="91"/>
-      <c r="T89" s="91"/>
-      <c r="U89" s="91"/>
-      <c r="V89" s="91"/>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B89" s="95"/>
+      <c r="C89" s="95"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="95"/>
+      <c r="F89" s="95"/>
+      <c r="G89" s="95"/>
+      <c r="H89" s="95"/>
+      <c r="I89" s="95"/>
+      <c r="J89" s="95"/>
+      <c r="K89" s="95"/>
+      <c r="L89" s="95"/>
+      <c r="M89" s="95"/>
+      <c r="N89" s="95"/>
+      <c r="O89" s="95"/>
+      <c r="P89" s="95"/>
+      <c r="Q89" s="95"/>
+      <c r="R89" s="95"/>
+      <c r="S89" s="95"/>
+      <c r="T89" s="95"/>
+      <c r="U89" s="95"/>
+      <c r="V89" s="95"/>
       <c r="W89" s="28"/>
       <c r="X89" s="28"/>
       <c r="Y89" s="28"/>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B90" s="52"/>
       <c r="C90" s="52"/>
       <c r="D90" s="52"/>
@@ -4219,7 +4221,7 @@
       <c r="U90" s="52"/>
       <c r="V90" s="52"/>
     </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B91" s="53" t="s">
         <v>45</v>
       </c>
@@ -4244,139 +4246,139 @@
       <c r="U91" s="52"/>
       <c r="V91" s="52"/>
     </row>
-    <row r="92" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="91" t="s">
+    <row r="92" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C92" s="91"/>
-      <c r="D92" s="91"/>
-      <c r="E92" s="91"/>
-      <c r="F92" s="91"/>
-      <c r="G92" s="91"/>
-      <c r="H92" s="91"/>
-      <c r="I92" s="91"/>
-      <c r="J92" s="91"/>
-      <c r="K92" s="91"/>
-      <c r="L92" s="91"/>
-      <c r="M92" s="91"/>
-      <c r="N92" s="91"/>
-      <c r="O92" s="91"/>
-      <c r="P92" s="91"/>
-      <c r="Q92" s="91"/>
-      <c r="R92" s="91"/>
-      <c r="S92" s="91"/>
-      <c r="T92" s="91"/>
-      <c r="U92" s="91"/>
-      <c r="V92" s="91"/>
+      <c r="C92" s="95"/>
+      <c r="D92" s="95"/>
+      <c r="E92" s="95"/>
+      <c r="F92" s="95"/>
+      <c r="G92" s="95"/>
+      <c r="H92" s="95"/>
+      <c r="I92" s="95"/>
+      <c r="J92" s="95"/>
+      <c r="K92" s="95"/>
+      <c r="L92" s="95"/>
+      <c r="M92" s="95"/>
+      <c r="N92" s="95"/>
+      <c r="O92" s="95"/>
+      <c r="P92" s="95"/>
+      <c r="Q92" s="95"/>
+      <c r="R92" s="95"/>
+      <c r="S92" s="95"/>
+      <c r="T92" s="95"/>
+      <c r="U92" s="95"/>
+      <c r="V92" s="95"/>
       <c r="W92" s="28"/>
       <c r="X92" s="28"/>
       <c r="Y92" s="28"/>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="91"/>
-      <c r="E93" s="91"/>
-      <c r="F93" s="91"/>
-      <c r="G93" s="91"/>
-      <c r="H93" s="91"/>
-      <c r="I93" s="91"/>
-      <c r="J93" s="91"/>
-      <c r="K93" s="91"/>
-      <c r="L93" s="91"/>
-      <c r="M93" s="91"/>
-      <c r="N93" s="91"/>
-      <c r="O93" s="91"/>
-      <c r="P93" s="91"/>
-      <c r="Q93" s="91"/>
-      <c r="R93" s="91"/>
-      <c r="S93" s="91"/>
-      <c r="T93" s="91"/>
-      <c r="U93" s="91"/>
-      <c r="V93" s="91"/>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B93" s="95"/>
+      <c r="C93" s="95"/>
+      <c r="D93" s="95"/>
+      <c r="E93" s="95"/>
+      <c r="F93" s="95"/>
+      <c r="G93" s="95"/>
+      <c r="H93" s="95"/>
+      <c r="I93" s="95"/>
+      <c r="J93" s="95"/>
+      <c r="K93" s="95"/>
+      <c r="L93" s="95"/>
+      <c r="M93" s="95"/>
+      <c r="N93" s="95"/>
+      <c r="O93" s="95"/>
+      <c r="P93" s="95"/>
+      <c r="Q93" s="95"/>
+      <c r="R93" s="95"/>
+      <c r="S93" s="95"/>
+      <c r="T93" s="95"/>
+      <c r="U93" s="95"/>
+      <c r="V93" s="95"/>
       <c r="W93" s="28"/>
       <c r="X93" s="28"/>
       <c r="Y93" s="28"/>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B94" s="91"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="91"/>
-      <c r="E94" s="91"/>
-      <c r="F94" s="91"/>
-      <c r="G94" s="91"/>
-      <c r="H94" s="91"/>
-      <c r="I94" s="91"/>
-      <c r="J94" s="91"/>
-      <c r="K94" s="91"/>
-      <c r="L94" s="91"/>
-      <c r="M94" s="91"/>
-      <c r="N94" s="91"/>
-      <c r="O94" s="91"/>
-      <c r="P94" s="91"/>
-      <c r="Q94" s="91"/>
-      <c r="R94" s="91"/>
-      <c r="S94" s="91"/>
-      <c r="T94" s="91"/>
-      <c r="U94" s="91"/>
-      <c r="V94" s="91"/>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B94" s="95"/>
+      <c r="C94" s="95"/>
+      <c r="D94" s="95"/>
+      <c r="E94" s="95"/>
+      <c r="F94" s="95"/>
+      <c r="G94" s="95"/>
+      <c r="H94" s="95"/>
+      <c r="I94" s="95"/>
+      <c r="J94" s="95"/>
+      <c r="K94" s="95"/>
+      <c r="L94" s="95"/>
+      <c r="M94" s="95"/>
+      <c r="N94" s="95"/>
+      <c r="O94" s="95"/>
+      <c r="P94" s="95"/>
+      <c r="Q94" s="95"/>
+      <c r="R94" s="95"/>
+      <c r="S94" s="95"/>
+      <c r="T94" s="95"/>
+      <c r="U94" s="95"/>
+      <c r="V94" s="95"/>
       <c r="W94" s="28"/>
       <c r="X94" s="28"/>
       <c r="Y94" s="28"/>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B95" s="91"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="91"/>
-      <c r="E95" s="91"/>
-      <c r="F95" s="91"/>
-      <c r="G95" s="91"/>
-      <c r="H95" s="91"/>
-      <c r="I95" s="91"/>
-      <c r="J95" s="91"/>
-      <c r="K95" s="91"/>
-      <c r="L95" s="91"/>
-      <c r="M95" s="91"/>
-      <c r="N95" s="91"/>
-      <c r="O95" s="91"/>
-      <c r="P95" s="91"/>
-      <c r="Q95" s="91"/>
-      <c r="R95" s="91"/>
-      <c r="S95" s="91"/>
-      <c r="T95" s="91"/>
-      <c r="U95" s="91"/>
-      <c r="V95" s="91"/>
+    <row r="95" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B95" s="95"/>
+      <c r="C95" s="95"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="95"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="95"/>
+      <c r="H95" s="95"/>
+      <c r="I95" s="95"/>
+      <c r="J95" s="95"/>
+      <c r="K95" s="95"/>
+      <c r="L95" s="95"/>
+      <c r="M95" s="95"/>
+      <c r="N95" s="95"/>
+      <c r="O95" s="95"/>
+      <c r="P95" s="95"/>
+      <c r="Q95" s="95"/>
+      <c r="R95" s="95"/>
+      <c r="S95" s="95"/>
+      <c r="T95" s="95"/>
+      <c r="U95" s="95"/>
+      <c r="V95" s="95"/>
       <c r="W95" s="28"/>
       <c r="X95" s="28"/>
       <c r="Y95" s="28"/>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B96" s="91"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="91"/>
-      <c r="G96" s="91"/>
-      <c r="H96" s="91"/>
-      <c r="I96" s="91"/>
-      <c r="J96" s="91"/>
-      <c r="K96" s="91"/>
-      <c r="L96" s="91"/>
-      <c r="M96" s="91"/>
-      <c r="N96" s="91"/>
-      <c r="O96" s="91"/>
-      <c r="P96" s="91"/>
-      <c r="Q96" s="91"/>
-      <c r="R96" s="91"/>
-      <c r="S96" s="91"/>
-      <c r="T96" s="91"/>
-      <c r="U96" s="91"/>
-      <c r="V96" s="91"/>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B96" s="95"/>
+      <c r="C96" s="95"/>
+      <c r="D96" s="95"/>
+      <c r="E96" s="95"/>
+      <c r="F96" s="95"/>
+      <c r="G96" s="95"/>
+      <c r="H96" s="95"/>
+      <c r="I96" s="95"/>
+      <c r="J96" s="95"/>
+      <c r="K96" s="95"/>
+      <c r="L96" s="95"/>
+      <c r="M96" s="95"/>
+      <c r="N96" s="95"/>
+      <c r="O96" s="95"/>
+      <c r="P96" s="95"/>
+      <c r="Q96" s="95"/>
+      <c r="R96" s="95"/>
+      <c r="S96" s="95"/>
+      <c r="T96" s="95"/>
+      <c r="U96" s="95"/>
+      <c r="V96" s="95"/>
       <c r="W96" s="28"/>
       <c r="X96" s="28"/>
       <c r="Y96" s="28"/>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -4401,7 +4403,7 @@
       <c r="X97" s="28"/>
       <c r="Y97" s="28"/>
     </row>
-    <row r="98" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="51" t="s">
         <v>47</v>
       </c>
@@ -4426,7 +4428,7 @@
       <c r="U98" s="52"/>
       <c r="V98" s="52"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B99" s="52" t="s">
         <v>48</v>
       </c>
@@ -4451,7 +4453,7 @@
       <c r="U99" s="52"/>
       <c r="V99" s="52"/>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B100" s="52" t="s">
         <v>93</v>
       </c>
@@ -4476,7 +4478,7 @@
       <c r="U100" s="52"/>
       <c r="V100" s="52"/>
     </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B101" s="52" t="s">
         <v>49</v>
       </c>
@@ -4501,7 +4503,7 @@
       <c r="U101" s="52"/>
       <c r="V101" s="52"/>
     </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B102" s="52" t="s">
         <v>50</v>
       </c>
@@ -4526,7 +4528,7 @@
       <c r="U102" s="52"/>
       <c r="V102" s="52"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B103" s="52" t="s">
         <v>51</v>
       </c>
@@ -4551,7 +4553,7 @@
       <c r="U103" s="52"/>
       <c r="V103" s="52"/>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B104" s="52" t="s">
         <v>52</v>
       </c>
@@ -4576,7 +4578,7 @@
       <c r="U104" s="52"/>
       <c r="V104" s="52"/>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B105" s="52" t="s">
         <v>53</v>
       </c>
@@ -4601,7 +4603,7 @@
       <c r="U105" s="52"/>
       <c r="V105" s="52"/>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B106" s="52"/>
       <c r="C106" s="52"/>
       <c r="D106" s="52"/>
@@ -4624,7 +4626,7 @@
       <c r="U106" s="52"/>
       <c r="V106" s="52"/>
     </row>
-    <row r="107" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="51" t="s">
         <v>54</v>
       </c>
@@ -4649,7 +4651,7 @@
       <c r="U107" s="52"/>
       <c r="V107" s="52"/>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="52" t="s">
         <v>55</v>
       </c>
@@ -4674,7 +4676,7 @@
       <c r="U108" s="52"/>
       <c r="V108" s="52"/>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B109" s="52" t="s">
         <v>56</v>
       </c>
@@ -4699,7 +4701,7 @@
       <c r="U109" s="52"/>
       <c r="V109" s="52"/>
     </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B110" s="52" t="s">
         <v>96</v>
       </c>
@@ -4724,7 +4726,7 @@
       <c r="U110" s="52"/>
       <c r="V110" s="52"/>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B111" s="52" t="s">
         <v>57</v>
       </c>
@@ -4749,7 +4751,7 @@
       <c r="U111" s="52"/>
       <c r="V111" s="52"/>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B112" s="52"/>
       <c r="C112" s="52"/>
       <c r="D112" s="52"/>
@@ -4772,150 +4774,145 @@
       <c r="U112" s="52"/>
       <c r="V112" s="52"/>
     </row>
-    <row r="113" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="92" t="s">
+    <row r="113" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="C113" s="93"/>
-      <c r="D113" s="93"/>
-      <c r="E113" s="93"/>
-      <c r="F113" s="93"/>
-      <c r="G113" s="93"/>
-      <c r="H113" s="93"/>
-      <c r="I113" s="93"/>
-      <c r="J113" s="93"/>
-      <c r="K113" s="93"/>
-      <c r="L113" s="93"/>
-      <c r="M113" s="93"/>
-      <c r="N113" s="93"/>
-      <c r="O113" s="93"/>
-      <c r="P113" s="93"/>
-      <c r="Q113" s="93"/>
-      <c r="R113" s="93"/>
-      <c r="S113" s="93"/>
-      <c r="T113" s="93"/>
-      <c r="U113" s="93"/>
-      <c r="V113" s="93"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="99"/>
+      <c r="E113" s="99"/>
+      <c r="F113" s="99"/>
+      <c r="G113" s="99"/>
+      <c r="H113" s="99"/>
+      <c r="I113" s="99"/>
+      <c r="J113" s="99"/>
+      <c r="K113" s="99"/>
+      <c r="L113" s="99"/>
+      <c r="M113" s="99"/>
+      <c r="N113" s="99"/>
+      <c r="O113" s="99"/>
+      <c r="P113" s="99"/>
+      <c r="Q113" s="99"/>
+      <c r="R113" s="99"/>
+      <c r="S113" s="99"/>
+      <c r="T113" s="99"/>
+      <c r="U113" s="99"/>
+      <c r="V113" s="99"/>
       <c r="W113" s="85"/>
       <c r="X113" s="85"/>
       <c r="Y113" s="85"/>
     </row>
-    <row r="114" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B114" s="93"/>
-      <c r="C114" s="93"/>
-      <c r="D114" s="93"/>
-      <c r="E114" s="93"/>
-      <c r="F114" s="93"/>
-      <c r="G114" s="93"/>
-      <c r="H114" s="93"/>
-      <c r="I114" s="93"/>
-      <c r="J114" s="93"/>
-      <c r="K114" s="93"/>
-      <c r="L114" s="93"/>
-      <c r="M114" s="93"/>
-      <c r="N114" s="93"/>
-      <c r="O114" s="93"/>
-      <c r="P114" s="93"/>
-      <c r="Q114" s="93"/>
-      <c r="R114" s="93"/>
-      <c r="S114" s="93"/>
-      <c r="T114" s="93"/>
-      <c r="U114" s="93"/>
-      <c r="V114" s="93"/>
+    <row r="114" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B114" s="99"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="99"/>
+      <c r="F114" s="99"/>
+      <c r="G114" s="99"/>
+      <c r="H114" s="99"/>
+      <c r="I114" s="99"/>
+      <c r="J114" s="99"/>
+      <c r="K114" s="99"/>
+      <c r="L114" s="99"/>
+      <c r="M114" s="99"/>
+      <c r="N114" s="99"/>
+      <c r="O114" s="99"/>
+      <c r="P114" s="99"/>
+      <c r="Q114" s="99"/>
+      <c r="R114" s="99"/>
+      <c r="S114" s="99"/>
+      <c r="T114" s="99"/>
+      <c r="U114" s="99"/>
+      <c r="V114" s="99"/>
       <c r="W114" s="85"/>
       <c r="X114" s="85"/>
       <c r="Y114" s="85"/>
     </row>
-    <row r="115" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B115" s="93"/>
-      <c r="C115" s="93"/>
-      <c r="D115" s="93"/>
-      <c r="E115" s="93"/>
-      <c r="F115" s="93"/>
-      <c r="G115" s="93"/>
-      <c r="H115" s="93"/>
-      <c r="I115" s="93"/>
-      <c r="J115" s="93"/>
-      <c r="K115" s="93"/>
-      <c r="L115" s="93"/>
-      <c r="M115" s="93"/>
-      <c r="N115" s="93"/>
-      <c r="O115" s="93"/>
-      <c r="P115" s="93"/>
-      <c r="Q115" s="93"/>
-      <c r="R115" s="93"/>
-      <c r="S115" s="93"/>
-      <c r="T115" s="93"/>
-      <c r="U115" s="93"/>
-      <c r="V115" s="93"/>
+    <row r="115" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B115" s="99"/>
+      <c r="C115" s="99"/>
+      <c r="D115" s="99"/>
+      <c r="E115" s="99"/>
+      <c r="F115" s="99"/>
+      <c r="G115" s="99"/>
+      <c r="H115" s="99"/>
+      <c r="I115" s="99"/>
+      <c r="J115" s="99"/>
+      <c r="K115" s="99"/>
+      <c r="L115" s="99"/>
+      <c r="M115" s="99"/>
+      <c r="N115" s="99"/>
+      <c r="O115" s="99"/>
+      <c r="P115" s="99"/>
+      <c r="Q115" s="99"/>
+      <c r="R115" s="99"/>
+      <c r="S115" s="99"/>
+      <c r="T115" s="99"/>
+      <c r="U115" s="99"/>
+      <c r="V115" s="99"/>
       <c r="W115" s="85"/>
       <c r="X115" s="85"/>
       <c r="Y115" s="85"/>
     </row>
-    <row r="116" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B116" s="93"/>
-      <c r="C116" s="93"/>
-      <c r="D116" s="93"/>
-      <c r="E116" s="93"/>
-      <c r="F116" s="93"/>
-      <c r="G116" s="93"/>
-      <c r="H116" s="93"/>
-      <c r="I116" s="93"/>
-      <c r="J116" s="93"/>
-      <c r="K116" s="93"/>
-      <c r="L116" s="93"/>
-      <c r="M116" s="93"/>
-      <c r="N116" s="93"/>
-      <c r="O116" s="93"/>
-      <c r="P116" s="93"/>
-      <c r="Q116" s="93"/>
-      <c r="R116" s="93"/>
-      <c r="S116" s="93"/>
-      <c r="T116" s="93"/>
-      <c r="U116" s="93"/>
-      <c r="V116" s="93"/>
+    <row r="116" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B116" s="99"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="99"/>
+      <c r="E116" s="99"/>
+      <c r="F116" s="99"/>
+      <c r="G116" s="99"/>
+      <c r="H116" s="99"/>
+      <c r="I116" s="99"/>
+      <c r="J116" s="99"/>
+      <c r="K116" s="99"/>
+      <c r="L116" s="99"/>
+      <c r="M116" s="99"/>
+      <c r="N116" s="99"/>
+      <c r="O116" s="99"/>
+      <c r="P116" s="99"/>
+      <c r="Q116" s="99"/>
+      <c r="R116" s="99"/>
+      <c r="S116" s="99"/>
+      <c r="T116" s="99"/>
+      <c r="U116" s="99"/>
+      <c r="V116" s="99"/>
       <c r="W116" s="85"/>
       <c r="X116" s="85"/>
       <c r="Y116" s="85"/>
     </row>
-    <row r="117" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B117" s="93"/>
-      <c r="C117" s="93"/>
-      <c r="D117" s="93"/>
-      <c r="E117" s="93"/>
-      <c r="F117" s="93"/>
-      <c r="G117" s="93"/>
-      <c r="H117" s="93"/>
-      <c r="I117" s="93"/>
-      <c r="J117" s="93"/>
-      <c r="K117" s="93"/>
-      <c r="L117" s="93"/>
-      <c r="M117" s="93"/>
-      <c r="N117" s="93"/>
-      <c r="O117" s="93"/>
-      <c r="P117" s="93"/>
-      <c r="Q117" s="93"/>
-      <c r="R117" s="93"/>
-      <c r="S117" s="93"/>
-      <c r="T117" s="93"/>
-      <c r="U117" s="93"/>
-      <c r="V117" s="93"/>
+    <row r="117" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B117" s="99"/>
+      <c r="C117" s="99"/>
+      <c r="D117" s="99"/>
+      <c r="E117" s="99"/>
+      <c r="F117" s="99"/>
+      <c r="G117" s="99"/>
+      <c r="H117" s="99"/>
+      <c r="I117" s="99"/>
+      <c r="J117" s="99"/>
+      <c r="K117" s="99"/>
+      <c r="L117" s="99"/>
+      <c r="M117" s="99"/>
+      <c r="N117" s="99"/>
+      <c r="O117" s="99"/>
+      <c r="P117" s="99"/>
+      <c r="Q117" s="99"/>
+      <c r="R117" s="99"/>
+      <c r="S117" s="99"/>
+      <c r="T117" s="99"/>
+      <c r="U117" s="99"/>
+      <c r="V117" s="99"/>
       <c r="W117" s="85"/>
       <c r="X117" s="85"/>
       <c r="Y117" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="B3:V5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="B71:V75"/>
+    <mergeCell ref="B78:V82"/>
+    <mergeCell ref="B85:V89"/>
+    <mergeCell ref="B92:V96"/>
+    <mergeCell ref="B113:V117"/>
     <mergeCell ref="B54:V59"/>
     <mergeCell ref="B65:V68"/>
     <mergeCell ref="M10:N10"/>
@@ -4930,11 +4927,16 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="N14:Q14"/>
     <mergeCell ref="S14:V14"/>
-    <mergeCell ref="B71:V75"/>
-    <mergeCell ref="B78:V82"/>
-    <mergeCell ref="B85:V89"/>
-    <mergeCell ref="B92:V96"/>
-    <mergeCell ref="B113:V117"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="B3:V5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{9709644B-39CD-48AC-A238-030820646717}"/>
@@ -4948,32 +4950,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3473B497-CCB9-41FD-9DFB-28A1EC6F895C}">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" style="1" customWidth="1"/>
-    <col min="12" max="14" width="9.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.6640625" style="1" customWidth="1"/>
-    <col min="16" max="18" width="9.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" style="1" customWidth="1"/>
-    <col min="20" max="22" width="9.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="1"/>
-    <col min="26" max="26" width="3.6640625" style="1" customWidth="1"/>
-    <col min="27" max="30" width="12.109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="3.6640625" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="1" customWidth="1"/>
+    <col min="16" max="18" width="9.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" style="1" customWidth="1"/>
+    <col min="20" max="22" width="9.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="1"/>
+    <col min="26" max="26" width="3.7109375" style="1" customWidth="1"/>
+    <col min="27" max="30" width="12.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="3.7109375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -5007,7 +5011,7 @@
       <c r="AE1" s="37"/>
       <c r="AF1" s="37"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -5043,7 +5047,7 @@
       <c r="AE2" s="37"/>
       <c r="AF2" s="37"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -5077,7 +5081,7 @@
       <c r="AE3" s="37"/>
       <c r="AF3" s="37"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -5111,7 +5115,7 @@
       <c r="AE4" s="37"/>
       <c r="AF4" s="37"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -5145,7 +5149,7 @@
       <c r="AE5" s="37"/>
       <c r="AF5" s="37"/>
     </row>
-    <row r="6" spans="1:32" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="74" t="s">
         <v>59</v>
@@ -5183,7 +5187,7 @@
       <c r="AE6" s="56"/>
       <c r="AF6" s="37"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="38" t="s">
         <v>61</v>
@@ -5221,7 +5225,7 @@
       <c r="AE7" s="80"/>
       <c r="AF7" s="37"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="38" t="s">
         <v>62</v>
@@ -5259,7 +5263,7 @@
       <c r="AE8" s="80"/>
       <c r="AF8" s="37"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -5295,7 +5299,7 @@
       <c r="AE9" s="80"/>
       <c r="AF9" s="37"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="89" t="s">
         <v>91</v>
@@ -5333,7 +5337,7 @@
       <c r="AE10" s="81"/>
       <c r="AF10" s="37"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
         <v>63</v>
@@ -5371,7 +5375,7 @@
       <c r="AE11" s="81"/>
       <c r="AF11" s="37"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="14" t="s">
         <v>64</v>
@@ -5409,7 +5413,7 @@
       <c r="AE12" s="81"/>
       <c r="AF12" s="37"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="13" t="s">
         <v>65</v>
@@ -5449,7 +5453,7 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="37"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="13" t="s">
         <v>67</v>
@@ -5491,7 +5495,7 @@
       <c r="AE14" s="84"/>
       <c r="AF14" s="37"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="13" t="s">
         <v>70</v>
@@ -5533,7 +5537,7 @@
       <c r="AE15" s="84"/>
       <c r="AF15" s="37"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -5569,7 +5573,7 @@
       <c r="AE16" s="78"/>
       <c r="AF16" s="37"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -5605,7 +5609,7 @@
       <c r="AE17" s="84"/>
       <c r="AF17" s="37"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -5649,7 +5653,7 @@
       <c r="AE18" s="84"/>
       <c r="AF18" s="37"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -5695,7 +5699,7 @@
       <c r="AE19" s="84"/>
       <c r="AF19" s="37"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="16" t="s">
         <v>74</v>
@@ -5769,7 +5773,7 @@
       <c r="AE20" s="84"/>
       <c r="AF20" s="37"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37">
         <v>2020</v>
@@ -5855,7 +5859,7 @@
       <c r="AE21" s="84"/>
       <c r="AF21" s="37"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="56">
         <v>2030</v>
@@ -5941,7 +5945,7 @@
       <c r="AE22" s="84"/>
       <c r="AF22" s="37"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37">
         <f>B22+10</f>
@@ -6026,7 +6030,7 @@
       <c r="AE23" s="84"/>
       <c r="AF23" s="37"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="56">
         <f t="shared" ref="B24:B34" si="4">B23+10</f>
@@ -6113,7 +6117,7 @@
       <c r="AE24" s="84"/>
       <c r="AF24" s="37"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37">
         <f t="shared" si="4"/>
@@ -6200,7 +6204,7 @@
       <c r="AE25" s="84"/>
       <c r="AF25" s="37"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="56">
         <f t="shared" si="4"/>
@@ -6285,7 +6289,7 @@
       <c r="AE26" s="84"/>
       <c r="AF26" s="37"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37">
         <f t="shared" si="4"/>
@@ -6376,7 +6380,7 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="37"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="56">
         <f t="shared" si="4"/>
@@ -6472,7 +6476,7 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="37"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37">
         <f t="shared" si="4"/>
@@ -6568,7 +6572,7 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="37"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="56">
         <f t="shared" si="4"/>
@@ -6653,7 +6657,7 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="37"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="37">
         <f t="shared" si="4"/>
@@ -6740,7 +6744,7 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="37"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="56">
         <f t="shared" si="4"/>
@@ -6831,7 +6835,7 @@
       <c r="AE32" s="2"/>
       <c r="AF32" s="37"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="37">
         <f t="shared" si="4"/>
@@ -6924,7 +6928,7 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="37"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
       <c r="B34" s="56">
         <f t="shared" si="4"/>
@@ -7017,7 +7021,7 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="37"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -7059,7 +7063,7 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="37"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -7101,7 +7105,7 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="37"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -7143,7 +7147,7 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="37"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -7185,7 +7189,7 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="37"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -7227,7 +7231,7 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="37"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="100" t="s">
         <v>79</v>
@@ -7271,7 +7275,7 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="37"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="100"/>
       <c r="C41" s="100"/>
@@ -7313,7 +7317,7 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="37"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
       <c r="B42" s="100"/>
       <c r="C42" s="100"/>
@@ -7355,7 +7359,7 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="37"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
       <c r="B43" s="100"/>
       <c r="C43" s="100"/>
@@ -7397,7 +7401,7 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="37"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="37"/>
       <c r="B44" s="100"/>
       <c r="C44" s="100"/>
@@ -7437,7 +7441,7 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="37"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="37"/>
       <c r="B45" s="101" t="s">
         <v>102</v>
@@ -7481,7 +7485,7 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="37"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="37"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
@@ -7523,7 +7527,7 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="37"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="37"/>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
@@ -7565,7 +7569,7 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="37"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="37"/>
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
@@ -7607,7 +7611,7 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="37"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
@@ -7649,7 +7653,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="37"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="37"/>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
@@ -7691,7 +7695,7 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="37"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="37"/>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
@@ -7733,7 +7737,7 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="37"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="37"/>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
@@ -7775,7 +7779,7 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="37"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
@@ -7817,7 +7821,7 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="37"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="37"/>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
@@ -7859,7 +7863,7 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="37"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="37"/>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
@@ -7901,7 +7905,7 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="37"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="37"/>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
@@ -7943,7 +7947,7 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="37"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="37"/>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
@@ -7985,7 +7989,7 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="37"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="37"/>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
@@ -8027,7 +8031,7 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="37"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="37"/>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
@@ -8069,7 +8073,7 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="37"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="37"/>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
@@ -8111,7 +8115,7 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="37"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="37"/>
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
@@ -8153,7 +8157,7 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="37"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="37"/>
       <c r="B62" s="37"/>
       <c r="C62" s="37"/>
@@ -8195,7 +8199,7 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="37"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="37"/>
       <c r="B63" s="37"/>
       <c r="C63" s="37"/>
@@ -8237,7 +8241,7 @@
       <c r="AE63" s="2"/>
       <c r="AF63" s="37"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="37"/>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
@@ -8271,7 +8275,7 @@
       <c r="AE64" s="37"/>
       <c r="AF64" s="37"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="37"/>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
